--- a/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
+++ b/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04-ZouBooMaFoo\2020\01-Projet\01-VanLife_Promaster\00-Suivie du Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Compagnie\GitKraken\ZoubooMaFoo\01-VanLife_Promaster\00-Suivie du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843727F0-53D0-432C-9AF0-AA92E6BE8130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C632BE3-E9B9-4F4D-AA31-7932E6A7D897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -620,25 +622,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.77734375" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>35</v>
       </c>
@@ -649,22 +651,22 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -726,7 +728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -776,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -826,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -864,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -918,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>3000</v>
       </c>
@@ -959,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>4000</v>
       </c>
@@ -972,7 +974,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -983,7 +985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -994,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>7164.2124999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>

--- a/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
+++ b/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Compagnie\GitKraken\ZoubooMaFoo\01-VanLife_Promaster\00-Suivie du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C632BE3-E9B9-4F4D-AA31-7932E6A7D897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A00B1-47FC-472C-9C9D-7393AD0A2DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t xml:space="preserve">Batterie </t>
   </si>
@@ -263,7 +264,139 @@
     <t>12v Dc -&gt; 24 Dc</t>
   </si>
   <si>
-    <t>https://www.orange-marine.com/convertisseurs-pure-sinus/27282-convertisseur-cc-cc-buck-boost.html</t>
+    <t>Option(3)</t>
+  </si>
+  <si>
+    <t>12v</t>
+  </si>
+  <si>
+    <t>24v</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>https://www.batteriesexpert.com/fr/inverters-and-ups/inverterschargers/inverterschargers/3031110129-evo-4024-ondulcharg-24vcc120vca-4000w-sinus-pure</t>
+  </si>
+  <si>
+    <t>Poids (lbs)</t>
+  </si>
+  <si>
+    <t>Peak (0 a 1 h)</t>
+  </si>
+  <si>
+    <t>https://volts.ca/store/brands/victron-energy/100a-buck-boost-dc-dc-converter.html?___from_store=default&amp;___store=french&amp;dc_voltage=180&amp;vpv_max=278</t>
+  </si>
+  <si>
+    <t>33V DC</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>100V DC -&gt; 12V</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Victron-SmartSolar-Contr%C3%B4leur-charge-100V/dp/B073ZJ43L1/ref=sr_1_4?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=victron+mppt&amp;qid=1584025366&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Contr%C3%B4leur-charge-solaire-MPPT-Contr%C3%B4leurs/dp/B07PJZSJBN/ref=sr_1_1?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=60a+mppt&amp;qid=1584025716&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>150V DC - &gt; 24 V</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Contr%C3%B4leur-t%C3%A9l%C3%A9commande-temp%C3%A9rature-surveillance-Tracer4215BN/dp/B07429RK43/ref=sr_1_2?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=mppt&amp;qid=1584026238&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>Epever</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/SmartSolar-MPPT-100-Contr%C3%B4leur-charge/dp/B073ZJ3L13/ref=sr_1_7?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=victron+mppt&amp;qid=1584026408&amp;s=lawn-garden&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>100 DC -&gt; 24V</t>
+  </si>
+  <si>
+    <t>Sterling Power</t>
+  </si>
+  <si>
+    <t>https://www.sterling-power-usa.com/SterlingPower12volt-24volt50ampdcinputbatterytobatterycharger.aspx</t>
+  </si>
+  <si>
+    <t>NE fait pas lithium</t>
+  </si>
+  <si>
+    <t>Battery 50% usable power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul de puissance </t>
+  </si>
+  <si>
+    <t>unit power</t>
+  </si>
+  <si>
+    <t>unit tension</t>
+  </si>
+  <si>
+    <t>unit Ampere max</t>
+  </si>
+  <si>
+    <t>Qte</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>Total power usable for cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chose qui consome energy </t>
+  </si>
+  <si>
+    <t>Poele 2x</t>
+  </si>
+  <si>
+    <t>Peak power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaffe eau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusion peux juste utiliser 2 source en meme temps </t>
+  </si>
+  <si>
+    <t>Noter que chauffer des l'eau</t>
+  </si>
+  <si>
+    <t>4186 Joules pour 1 litre augmente de 1 degre C</t>
+  </si>
+  <si>
+    <t>Peak power battery</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Victron-Argofet-Isolateur-batterie-200A/dp/B00NT9MTMQ?pf_rd_r=0RM4EZ4H34KKD300WH9J&amp;pf_rd_p=2b146bb9-5e1e-4d9a-9986-c6aa1de38941&amp;pd_rd_r=85e0b29d-ac2f-45e9-8d8c-b7f79d777d7a&amp;pd_rd_w=84a2D&amp;pd_rd_wg=JfKwT&amp;ref_=pd_gw_cr_simh</t>
+  </si>
+  <si>
+    <t>Mettre proche alternateur</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Bus bar(distribution systeme</t>
   </si>
 </sst>
 </file>
@@ -299,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,11 +445,85 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -328,15 +535,54 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
@@ -620,584 +866,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="7">
+      <c r="P1" s="3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="T4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4800</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4">
+        <v>400</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="6">
+        <v>964.95</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>O6*P6</f>
+        <v>3859.8</v>
+      </c>
+      <c r="R6" s="7">
+        <f>$P$1*Q6</f>
+        <v>578.97</v>
+      </c>
+      <c r="S6" s="8">
+        <f>Q6*(1+$P$1)</f>
+        <v>4438.7699999999995</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>620</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="9">
+        <v>52</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="11">
+        <v>285</v>
+      </c>
+      <c r="P7" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>O7*P7</f>
+        <v>570</v>
+      </c>
+      <c r="R7" s="13">
+        <f>$P$1*Q7</f>
+        <v>85.5</v>
+      </c>
+      <c r="S7" s="11">
+        <f>Q7*(1+$P$1)</f>
+        <v>655.5</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="14">
+        <v>600</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="14">
+        <v>50</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="16">
+        <v>455.48</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>O8*P8</f>
+        <v>455.48</v>
+      </c>
+      <c r="R8" s="17">
+        <f>$P$1*Q8</f>
+        <v>68.322000000000003</v>
+      </c>
+      <c r="S8" s="18">
+        <f>Q8*(1+$P$1)</f>
+        <v>523.80200000000002</v>
+      </c>
+      <c r="T8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="14">
+        <v>900</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="14">
+        <v>60</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="18">
+        <v>255</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>O9*P9</f>
+        <v>255</v>
+      </c>
+      <c r="R9" s="17">
+        <f>$P$1*Q9</f>
+        <v>38.25</v>
+      </c>
+      <c r="S9" s="18">
+        <f>Q9*(1+$P$1)</f>
+        <v>293.25</v>
+      </c>
+      <c r="U9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="14">
+        <v>960</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="14">
+        <v>40</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="18">
+        <v>275</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>O10*P10</f>
+        <v>275</v>
+      </c>
+      <c r="R10" s="17">
+        <f>$P$1*Q10</f>
+        <v>41.25</v>
+      </c>
+      <c r="S10" s="18">
+        <f>Q10*(1+$P$1)</f>
+        <v>316.25</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="14">
+        <v>720</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="14">
+        <v>30</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="18">
+        <v>300</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>O11*P11</f>
+        <v>300</v>
+      </c>
+      <c r="R11" s="17">
+        <f>$P$1*Q11</f>
+        <v>45</v>
+      </c>
+      <c r="S11" s="18">
+        <f>Q11*(1+$P$1)</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="19">
+        <f>E12/G2</f>
+        <v>25</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="21">
+        <v>2199.9499999999998</v>
+      </c>
+      <c r="P12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="22">
+        <f>O12*P12</f>
+        <v>2199.9499999999998</v>
+      </c>
+      <c r="R12" s="22">
+        <f>$P$1*Q12</f>
+        <v>329.99249999999995</v>
+      </c>
+      <c r="S12" s="23">
+        <f>Q12*(1+$P$1)</f>
+        <v>2529.9424999999997</v>
+      </c>
+      <c r="T12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="19">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="19">
+        <v>25</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="21">
+        <v>1799.95</v>
+      </c>
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="22">
+        <f>O13*P13</f>
+        <v>1799.95</v>
+      </c>
+      <c r="R13" s="22">
+        <f>$P$1*Q13</f>
+        <v>269.99250000000001</v>
+      </c>
+      <c r="S13" s="23">
+        <f>Q13*(1+$P$1)</f>
+        <v>2069.9425000000001</v>
+      </c>
+      <c r="U13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="19">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="19">
+        <v>33.33</v>
+      </c>
+      <c r="I14" s="19">
+        <v>29</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="21">
+        <v>2199.9499999999998</v>
+      </c>
+      <c r="P14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <f>O14*P14</f>
+        <v>2199.9499999999998</v>
+      </c>
+      <c r="R14" s="22">
+        <f>$P$1*Q14</f>
+        <v>329.99249999999995</v>
+      </c>
+      <c r="S14" s="23">
+        <f>Q14*(1+$P$1)</f>
+        <v>2529.9424999999997</v>
+      </c>
+      <c r="V14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="28">
+        <v>50</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="30">
+        <v>1515.02</v>
+      </c>
+      <c r="P15" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="31">
+        <f>O15*P15</f>
+        <v>1515.02</v>
+      </c>
+      <c r="R15" s="31">
+        <f>$P$1*Q15</f>
+        <v>227.25299999999999</v>
+      </c>
+      <c r="S15" s="30">
+        <f>Q15*(1+$P$1)</f>
+        <v>1742.2729999999999</v>
+      </c>
+      <c r="V15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="28">
+        <f>448*1.38</f>
+        <v>618.24</v>
+      </c>
+      <c r="P16" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="31">
+        <f>O16*P16</f>
+        <v>1236.48</v>
+      </c>
+      <c r="R16" s="31">
+        <f>$P$1*Q16</f>
+        <v>185.47200000000001</v>
+      </c>
+      <c r="S16" s="30">
+        <f>Q16*(1+$P$1)</f>
+        <v>1421.952</v>
+      </c>
+      <c r="V16" s="28">
+        <v>0</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="39">
+        <v>200</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="41">
+        <v>189</v>
+      </c>
+      <c r="P17" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="42">
+        <f>O17*P17</f>
+        <v>189</v>
+      </c>
+      <c r="R17" s="42">
+        <f>$P$1*Q17</f>
+        <v>28.349999999999998</v>
+      </c>
+      <c r="S17" s="41">
+        <f>Q17*(1+$P$1)</f>
+        <v>217.35</v>
+      </c>
+      <c r="T17" s="39">
+        <v>1</v>
+      </c>
+      <c r="U17" s="39">
+        <v>1</v>
+      </c>
+      <c r="W17" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="O18" s="44"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="44"/>
+    </row>
+    <row r="19" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="46"/>
+      <c r="O19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="44"/>
+    </row>
+    <row r="20" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="46"/>
+      <c r="O20" s="44"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+    </row>
+    <row r="21" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="46"/>
+      <c r="O21" s="44"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="44"/>
+    </row>
+    <row r="22" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="46"/>
+      <c r="O22" s="44"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="44"/>
+    </row>
+    <row r="23" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="46"/>
+      <c r="O23" s="44"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="44"/>
+    </row>
+    <row r="24" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="46"/>
+      <c r="O24" s="44"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="44"/>
+    </row>
+    <row r="25" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="32">
+        <f>O25*P25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <f>$P$1*Q25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="33">
+        <f>Q25*(1+$P$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="T26" s="26">
+        <f>SUMIFS($S6:$S25,T6:T25,1)</f>
+        <v>8365.3644999999997</v>
+      </c>
+      <c r="U26" s="26">
+        <f>SUMIFS($S6:$S25,U6:U25,1)</f>
+        <v>7674.8125</v>
+      </c>
+      <c r="V26" s="26">
+        <f>SUMIFS($S6:$S25,V6:V25,1)</f>
+        <v>9682.7354999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
         <v>70</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J35" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N35" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>4800</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
-        <v>400</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="6">
-        <v>964.95</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6" s="5">
-        <f>N6*O6</f>
-        <v>3859.8</v>
-      </c>
-      <c r="Q6" s="5">
-        <f>$O$1*P6</f>
-        <v>578.97</v>
-      </c>
-      <c r="R6" s="2">
-        <f>P6*(1+$O$1)</f>
-        <v>4438.7699999999995</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>620</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
         <v>28</v>
       </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="2">
-        <v>285</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" ref="P7:P10" si="0">N7*O7</f>
-        <v>570</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" ref="Q7:Q10" si="1">$O$1*P7</f>
-        <v>85.5</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:R10" si="2">P7*(1+$O$1)</f>
-        <v>655.5</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>720</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9">
-        <f>E9/G2</f>
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="6">
-        <v>2199.9499999999998</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="0"/>
-        <v>2199.9499999999998</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="1"/>
-        <v>329.99249999999995</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="2"/>
-        <v>2529.9424999999997</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>3000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1799.95</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="0"/>
-        <v>1799.95</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>269.99250000000001</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="2"/>
-        <v>2069.9425000000001</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <v>4000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="N11" s="6"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>200</v>
-      </c>
-      <c r="H14">
-        <v>200</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2175</v>
-      </c>
-      <c r="R15" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15">
-        <f>SUMIFS($R6:$R10,S6:S10,1)</f>
-        <v>7624.2124999999996</v>
-      </c>
-      <c r="T15">
-        <f>SUMIFS($R6:$R10,T6:T10,1)</f>
-        <v>7164.2124999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F42" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" xr:uid="{C47897E7-5EE8-4998-AC5C-1786F25DB686}"/>
-    <hyperlink ref="L6" r:id="rId2" xr:uid="{4DFF41F2-6B1B-4F69-A32C-6B71AF58F2E3}"/>
-    <hyperlink ref="L9" r:id="rId3" xr:uid="{C3C7EC1B-F9D4-4361-99E1-ACA272D0A2C4}"/>
-    <hyperlink ref="L10" r:id="rId4" xr:uid="{499EE13C-3DE0-4E0B-8464-60A96D868FBB}"/>
-    <hyperlink ref="L21" r:id="rId5" xr:uid="{2571A664-CA7A-46F8-AAEF-E2BDC65E7B71}"/>
-    <hyperlink ref="L20" r:id="rId6" xr:uid="{A392FD84-2EFA-49E5-A7D6-3C916F97015C}"/>
-    <hyperlink ref="L15" r:id="rId7" xr:uid="{CDF4A991-1ADC-4179-9E81-FE6535C635C5}"/>
+    <hyperlink ref="M7" r:id="rId1" xr:uid="{C47897E7-5EE8-4998-AC5C-1786F25DB686}"/>
+    <hyperlink ref="M6" r:id="rId2" xr:uid="{4DFF41F2-6B1B-4F69-A32C-6B71AF58F2E3}"/>
+    <hyperlink ref="M12" r:id="rId3" xr:uid="{C3C7EC1B-F9D4-4361-99E1-ACA272D0A2C4}"/>
+    <hyperlink ref="M13" r:id="rId4" xr:uid="{499EE13C-3DE0-4E0B-8464-60A96D868FBB}"/>
+    <hyperlink ref="M39" r:id="rId5" xr:uid="{2571A664-CA7A-46F8-AAEF-E2BDC65E7B71}"/>
+    <hyperlink ref="M38" r:id="rId6" xr:uid="{A392FD84-2EFA-49E5-A7D6-3C916F97015C}"/>
+    <hyperlink ref="M14" r:id="rId7" xr:uid="{A1166C2B-6022-47B8-96A1-40BCA6A51501}"/>
+    <hyperlink ref="M15" r:id="rId8" xr:uid="{A71FE97B-9AA0-470E-8746-F8F0ED1A64ED}"/>
+    <hyperlink ref="M8" r:id="rId9" xr:uid="{D41568BE-7EC1-4877-A2ED-70AD5E599E38}"/>
+    <hyperlink ref="M9" r:id="rId10" xr:uid="{6F165196-77EC-42C8-BE7D-FC2E971DCCE4}"/>
+    <hyperlink ref="M10" r:id="rId11" xr:uid="{578D822F-F887-46C5-A03D-189F14DA7A35}"/>
+    <hyperlink ref="M11" r:id="rId12" xr:uid="{EECA648D-244B-4A1D-8D84-E2DFB7116ECB}"/>
+    <hyperlink ref="M16" r:id="rId13" xr:uid="{F8BD1B93-76B7-4C67-AD88-392D32835316}"/>
+    <hyperlink ref="M17" r:id="rId14" xr:uid="{9D737361-9542-429E-887B-01E65FD35D0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC614BF-C433-45D0-982E-8EA8E06B281D}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <f>12*100</f>
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>F3*C3</f>
+        <v>4800</v>
+      </c>
+      <c r="H3">
+        <f>G3*0.8</f>
+        <v>3840</v>
+      </c>
+      <c r="I3">
+        <f>F3*E3*D3</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="C4">
+        <f>12*100</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>F4*C4</f>
+        <v>7200</v>
+      </c>
+      <c r="H4">
+        <f>G4*0.8</f>
+        <v>5760</v>
+      </c>
+      <c r="I4">
+        <f>F4*E4*D4</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>1800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>1440</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C8:C12)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
+++ b/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Compagnie\GitKraken\ZoubooMaFoo\01-VanLife_Promaster\00-Suivie du Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04-ZouBooMaFoo\ZoubooMaFoo\01-VanLife_Promaster\00-Suivie du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A00B1-47FC-472C-9C9D-7393AD0A2DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1719C-075E-4DCF-B441-7071B5963231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tout" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Distribution Electrique" sheetId="1" r:id="rId1"/>
+    <sheet name="Charge Electrique" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="143">
   <si>
     <t xml:space="preserve">Batterie </t>
   </si>
@@ -397,6 +396,72 @@
   </si>
   <si>
     <t>Bus bar(distribution systeme</t>
+  </si>
+  <si>
+    <t>https://uniqueappliances.com/product/unique-solar-powered-dc-fridge-2/</t>
+  </si>
+  <si>
+    <t>Volume utilisable(L)</t>
+  </si>
+  <si>
+    <t>120 AC</t>
+  </si>
+  <si>
+    <t>Puissance en (W / j)</t>
+  </si>
+  <si>
+    <t>Utilisation (h) / j</t>
+  </si>
+  <si>
+    <t>http://www.trueinduction.com/Double-Burner-Counter-Inset-Model.aspx</t>
+  </si>
+  <si>
+    <t>True induction</t>
+  </si>
+  <si>
+    <t>http://www.trueinduction.com/Double-Burner-Vertical-Model.aspx</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/cuisson-induction-Br%C3%BBleur-consommation-d%C3%A9nergie/dp/B004BFVWKW/ref=sr_1_4?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=true+induction&amp;qid=1584038029&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Lien(Detaillant)</t>
+  </si>
+  <si>
+    <t>Lien manufacturier</t>
+  </si>
+  <si>
+    <t>Dometic</t>
+  </si>
+  <si>
+    <t>https://www.campingworld.com/dometic-ci21-induction-cooktop-107853.html?cgid=ranges-cooktops#start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops</t>
+  </si>
+  <si>
+    <t>470 USD</t>
+  </si>
+  <si>
+    <t>mini four portatif</t>
+  </si>
+  <si>
+    <t>https://www.canadiantire.ca/fr/pdp/four-grille-pain-a-convection-paderno-6-tranches-0435267p.0435267.html?gclid=Cj0KCQjwu6fzBRC6ARIsAJUwa2TT8W5uoxdikiHuZMiFqOtU6Wyr9xZdjw4J6rs42ap8RXev7TvXgIoaAqH9EALw_wcB&amp;gclsrc=aw.ds#store=256</t>
+  </si>
+  <si>
+    <t>800USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.fisherpaykel.com/nz/kitchen/cooking-appliances/built-in-ovens/60cm-compact-9-function-built-in-oven-55l.OB60NC9DEX1.html</t>
+  </si>
+  <si>
+    <t>4500W pour 1heure</t>
   </si>
 </sst>
 </file>
@@ -535,7 +600,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -583,6 +648,7 @@
     <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
@@ -868,27 +934,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" customWidth="1"/>
+    <col min="9" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>35</v>
       </c>
@@ -899,12 +965,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>34</v>
       </c>
@@ -918,7 +984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G4">
         <v>12</v>
       </c>
@@ -932,7 +998,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1032,15 +1098,15 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7">
-        <f>O6*P6</f>
+        <f t="shared" ref="Q6:Q17" si="0">O6*P6</f>
         <v>3859.8</v>
       </c>
       <c r="R6" s="7">
-        <f>$P$1*Q6</f>
+        <f t="shared" ref="R6:R17" si="1">$P$1*Q6</f>
         <v>578.97</v>
       </c>
       <c r="S6" s="8">
-        <f>Q6*(1+$P$1)</f>
+        <f t="shared" ref="S6:S17" si="2">Q6*(1+$P$1)</f>
         <v>4438.7699999999995</v>
       </c>
       <c r="T6" s="4">
@@ -1053,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1085,15 +1151,15 @@
         <v>2</v>
       </c>
       <c r="Q7" s="13">
-        <f>O7*P7</f>
+        <f t="shared" si="0"/>
         <v>570</v>
       </c>
       <c r="R7" s="13">
-        <f>$P$1*Q7</f>
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
       <c r="S7" s="11">
-        <f>Q7*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>655.5</v>
       </c>
       <c r="T7" s="9">
@@ -1106,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
@@ -1141,22 +1207,22 @@
         <v>1</v>
       </c>
       <c r="Q8" s="17">
-        <f>O8*P8</f>
+        <f t="shared" si="0"/>
         <v>455.48</v>
       </c>
       <c r="R8" s="17">
-        <f>$P$1*Q8</f>
+        <f t="shared" si="1"/>
         <v>68.322000000000003</v>
       </c>
       <c r="S8" s="18">
-        <f>Q8*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>523.80200000000002</v>
       </c>
       <c r="T8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>80</v>
       </c>
@@ -1185,22 +1251,22 @@
         <v>1</v>
       </c>
       <c r="Q9" s="17">
-        <f>O9*P9</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="R9" s="17">
-        <f>$P$1*Q9</f>
+        <f t="shared" si="1"/>
         <v>38.25</v>
       </c>
       <c r="S9" s="18">
-        <f>Q9*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>293.25</v>
       </c>
       <c r="U9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>92</v>
       </c>
@@ -1229,22 +1295,22 @@
         <v>1</v>
       </c>
       <c r="Q10" s="17">
-        <f>O10*P10</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="R10" s="17">
-        <f>$P$1*Q10</f>
+        <f t="shared" si="1"/>
         <v>41.25</v>
       </c>
       <c r="S10" s="18">
-        <f>Q10*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>316.25</v>
       </c>
       <c r="V10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
         <v>79</v>
       </c>
@@ -1273,19 +1339,19 @@
         <v>1</v>
       </c>
       <c r="Q11" s="17">
-        <f>O11*P11</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="R11" s="17">
-        <f>$P$1*Q11</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="S11" s="18">
-        <f>Q11*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
@@ -1321,22 +1387,22 @@
         <v>1</v>
       </c>
       <c r="Q12" s="22">
-        <f>O12*P12</f>
+        <f t="shared" si="0"/>
         <v>2199.9499999999998</v>
       </c>
       <c r="R12" s="22">
-        <f>$P$1*Q12</f>
+        <f t="shared" si="1"/>
         <v>329.99249999999995</v>
       </c>
       <c r="S12" s="23">
-        <f>Q12*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>2529.9424999999997</v>
       </c>
       <c r="T12" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="19">
         <v>3000</v>
       </c>
@@ -1362,22 +1428,22 @@
         <v>1</v>
       </c>
       <c r="Q13" s="22">
-        <f>O13*P13</f>
+        <f t="shared" si="0"/>
         <v>1799.95</v>
       </c>
       <c r="R13" s="22">
-        <f>$P$1*Q13</f>
+        <f t="shared" si="1"/>
         <v>269.99250000000001</v>
       </c>
       <c r="S13" s="23">
-        <f>Q13*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>2069.9425000000001</v>
       </c>
       <c r="U13" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="19">
         <v>4000</v>
       </c>
@@ -1406,22 +1472,22 @@
         <v>1</v>
       </c>
       <c r="Q14" s="22">
-        <f>O14*P14</f>
+        <f t="shared" si="0"/>
         <v>2199.9499999999998</v>
       </c>
       <c r="R14" s="22">
-        <f>$P$1*Q14</f>
+        <f t="shared" si="1"/>
         <v>329.99249999999995</v>
       </c>
       <c r="S14" s="23">
-        <f>Q14*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>2529.9424999999997</v>
       </c>
       <c r="V14" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>74</v>
       </c>
@@ -1447,22 +1513,22 @@
         <v>1</v>
       </c>
       <c r="Q15" s="31">
-        <f>O15*P15</f>
+        <f t="shared" si="0"/>
         <v>1515.02</v>
       </c>
       <c r="R15" s="31">
-        <f>$P$1*Q15</f>
+        <f t="shared" si="1"/>
         <v>227.25299999999999</v>
       </c>
       <c r="S15" s="30">
-        <f>Q15*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>1742.2729999999999</v>
       </c>
       <c r="V15" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1486,15 +1552,15 @@
         <v>2</v>
       </c>
       <c r="Q16" s="31">
-        <f>O16*P16</f>
+        <f t="shared" si="0"/>
         <v>1236.48</v>
       </c>
       <c r="R16" s="31">
-        <f>$P$1*Q16</f>
+        <f t="shared" si="1"/>
         <v>185.47200000000001</v>
       </c>
       <c r="S16" s="30">
-        <f>Q16*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>1421.952</v>
       </c>
       <c r="V16" s="28">
@@ -1504,7 +1570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
@@ -1533,15 +1599,15 @@
         <v>1</v>
       </c>
       <c r="Q17" s="42">
-        <f>O17*P17</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="R17" s="42">
-        <f>$P$1*Q17</f>
+        <f t="shared" si="1"/>
         <v>28.349999999999998</v>
       </c>
       <c r="S17" s="41">
-        <f>Q17*(1+$P$1)</f>
+        <f t="shared" si="2"/>
         <v>217.35</v>
       </c>
       <c r="T17" s="39">
@@ -1554,7 +1620,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43" t="s">
         <v>120</v>
       </c>
@@ -1564,49 +1630,49 @@
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
     </row>
-    <row r="19" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M19" s="46"/>
       <c r="O19" s="44"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="44"/>
     </row>
-    <row r="20" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M20" s="46"/>
       <c r="O20" s="44"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
     </row>
-    <row r="21" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M21" s="46"/>
       <c r="O21" s="44"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="44"/>
     </row>
-    <row r="22" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M22" s="46"/>
       <c r="O22" s="44"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
     </row>
-    <row r="23" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M23" s="46"/>
       <c r="O23" s="44"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
       <c r="S23" s="44"/>
     </row>
-    <row r="24" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M24" s="46"/>
       <c r="O24" s="44"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
     </row>
-    <row r="25" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
         <v>119</v>
       </c>
@@ -1649,13 +1715,13 @@
         <v>9682.7354999999989</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -1716,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -1768,7 +1834,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>16</v>
       </c>
@@ -1787,7 +1853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>29</v>
       </c>
@@ -1818,29 +1884,329 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796DE933-3995-4011-AD8E-2C8B39A8D7E0}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1800</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <f>E2/120</f>
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2</f>
+        <v>1800</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1800</v>
+      </c>
+      <c r="M4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G9" si="0">E6/120</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>H6*E6</f>
+        <v>1400</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6">
+        <f>800*1.38</f>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8">
+        <v>1750</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <f>1750/120</f>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>H9*E9</f>
+        <v>1440</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>260</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="47">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O9" r:id="rId1" xr:uid="{E3A82E41-384D-4850-B4BC-469D1BDEF0BC}"/>
+    <hyperlink ref="O12" r:id="rId2" xr:uid="{42FA0B55-D336-4512-9224-B1AB14B596A8}"/>
+    <hyperlink ref="P4" r:id="rId3" xr:uid="{0FA91225-8268-4414-BEAD-FC8276A417FD}"/>
+    <hyperlink ref="O3" r:id="rId4" xr:uid="{7594A523-EFD4-4808-A9A8-2E191B458E3F}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{93D119F3-1EF4-4D2C-AEA5-54808DCD0BA5}"/>
+    <hyperlink ref="O5" r:id="rId6" location="start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops" display="https://www.campingworld.com/dometic-ci21-induction-cooktop-107853.html?cgid=ranges-cooktops - start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops" xr:uid="{5DC9344F-8740-46E2-A096-ED0B240B7DB5}"/>
+    <hyperlink ref="O8" r:id="rId7" location="store=256" display="https://www.canadiantire.ca/fr/pdp/four-grille-pain-a-convection-paderno-6-tranches-0435267p.0435267.html?gclid=Cj0KCQjwu6fzBRC6ARIsAJUwa2TT8W5uoxdikiHuZMiFqOtU6Wyr9xZdjw4J6rs42ap8RXev7TvXgIoaAqH9EALw_wcB&amp;gclsrc=aw.ds - store=256" xr:uid="{CF014C39-5AA7-4BD5-B040-8D9145E5A1B8}"/>
+    <hyperlink ref="O7" r:id="rId8" xr:uid="{4CE9ADF3-C60F-468E-90C9-06CF1E0AAC79}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC614BF-C433-45D0-982E-8EA8E06B281D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" s="36" t="s">
         <v>102</v>
       </c>
@@ -1863,7 +2229,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>100</v>
       </c>
@@ -1893,7 +2259,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
       <c r="C4">
         <f>12*100</f>
@@ -1921,10 +2287,10 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -1932,7 +2298,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1943,7 +2309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>109</v>
       </c>
@@ -1954,7 +2320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>111</v>
       </c>
@@ -1965,7 +2331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>112</v>
       </c>
@@ -1973,18 +2339,21 @@
         <f>SUM(C8:C12)</f>
         <v>4640</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>115</v>
       </c>

--- a/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
+++ b/01-VanLife_Promaster/00-Suivie du Projet/Liste de piece potentiel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04-ZouBooMaFoo\ZoubooMaFoo\01-VanLife_Promaster\00-Suivie du Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Compagnie\GitKraken\ZoubooMaFoo\01-VanLife_Promaster\00-Suivie du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1719C-075E-4DCF-B441-7071B5963231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2082B6-AD54-4041-B967-47581B5C9AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Electrique" sheetId="1" r:id="rId1"/>
     <sheet name="Charge Electrique" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
+    <sheet name="Le reste" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="195">
   <si>
     <t xml:space="preserve">Batterie </t>
   </si>
@@ -462,6 +465,162 @@
   </si>
   <si>
     <t>4500W pour 1heure</t>
+  </si>
+  <si>
+    <t>Best option</t>
+  </si>
+  <si>
+    <t>Shunt</t>
+  </si>
+  <si>
+    <t>Affichage</t>
+  </si>
+  <si>
+    <t>taxe</t>
+  </si>
+  <si>
+    <t>Rond induction double</t>
+  </si>
+  <si>
+    <t>True Induction</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Tables-cuisson-induction-one-size/dp/B017P8HADY/ref=sr_1_1?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=furrion+oven&amp;qid=1584053715&amp;s=automotive&amp;sr=1-1-catcorr</t>
+  </si>
+  <si>
+    <t>https://www.etrailer.com/RV-Stoves-and-Cooktops/Greystone/324-000127.html</t>
+  </si>
+  <si>
+    <t>264 USD</t>
+  </si>
+  <si>
+    <t>https://www.etrailer.com/RV-Stoves-and-Cooktops/Furrion/FIH2ZEABG.html</t>
+  </si>
+  <si>
+    <t>Autre grosse depense</t>
+  </si>
+  <si>
+    <t>Chaffage au gaz</t>
+  </si>
+  <si>
+    <t>Sivel bench</t>
+  </si>
+  <si>
+    <t>Webasto</t>
+  </si>
+  <si>
+    <t>Van life mtl</t>
+  </si>
+  <si>
+    <t>van life mtl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tank a eau </t>
+  </si>
+  <si>
+    <t>Frigo DC</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Tanguy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventialteur </t>
+  </si>
+  <si>
+    <t>Maxxair</t>
+  </si>
+  <si>
+    <t>Amazon/VanLife</t>
+  </si>
+  <si>
+    <t>https://vanlifeboutique.com/collections/fabrication-vanlife/products/maxxfan-deluxe-00-06200k-smoke-transparent</t>
+  </si>
+  <si>
+    <t>Eau chaude</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Bosch-Eau-Chauffage-Es2-5-Tronic-3000-Chauffe-eau/dp/B0148O658Y/ref=sr_1_12?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=mini+water+heater&amp;qid=1584058967&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>Acumulateur</t>
+  </si>
+  <si>
+    <t>EAU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SHURFLO-182-200-Pre-Pressurized-Accumulator-Tank/dp/B000N9VF6Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SHURFLO-4008-101-A65-Water-Pump-Revolution/dp/B00W5GCQC2/ref=pd_sbs_263_img_1/134-2173165-6861012?_encoding=UTF8&amp;pd_rd_i=B00W5GCQC2&amp;pd_rd_r=0e2ae9fd-78f6-497b-8d68-7727eddaf473&amp;pd_rd_w=jZhFp&amp;pd_rd_wg=J472b&amp;pf_rd_p=5cfcfe89-300f-47d2-b1ad-a4e27203a02a&amp;pf_rd_r=45T142AVQX13ZQBFM5FP&amp;psc=1&amp;refRID=45T142AVQX13ZQBFM5FP#HLCXComparisonWidget_feature_div</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>Sonorite</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>Matelas</t>
+  </si>
+  <si>
+    <t>````</t>
+  </si>
+  <si>
+    <t>`````</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Support paneau solaire</t>
+  </si>
+  <si>
+    <t>Rack sur le toit</t>
+  </si>
+  <si>
+    <t>Chauffage au GAZ</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>moins 800 Selon le FOUR</t>
+  </si>
+  <si>
+    <t>Tuyau d'eau</t>
+  </si>
+  <si>
+    <t>Banc pivot</t>
+  </si>
+  <si>
+    <t>https://vanlifeboutique.com/collections/fabrication-vanlife/products/webasto-air-top-2000-stc-gas</t>
+  </si>
+  <si>
+    <t>https://vanlifeboutique.com/collections/fabrication-vanlife/products/banc-pivot-passager-dodge-promaster</t>
+  </si>
+  <si>
+    <t>https://qc.endy.com/products/matelas?size=double</t>
+  </si>
+  <si>
+    <t>Coussin(HOME made)</t>
+  </si>
+  <si>
+    <t>Tank d'eau</t>
+  </si>
+  <si>
+    <t>https://vanlifeboutique.com/collections/fabrication-vanlife/products/reservoir-deau-potable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total : </t>
   </si>
 </sst>
 </file>
@@ -497,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +717,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -593,6 +776,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -600,7 +796,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -628,7 +824,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -649,6 +844,34 @@
     <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
@@ -934,27 +1157,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD42"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="17.6640625" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>35</v>
       </c>
@@ -965,12 +1189,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>34</v>
       </c>
@@ -984,7 +1208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>12</v>
       </c>
@@ -998,7 +1222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="14" t="s">
         <v>80</v>
       </c>
@@ -1266,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
         <v>92</v>
       </c>
@@ -1285,7 +1509,7 @@
       <c r="L10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="O10" s="18">
@@ -1310,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="14" t="s">
         <v>79</v>
       </c>
@@ -1329,7 +1553,7 @@
       <c r="L11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="15" t="s">
         <v>95</v>
       </c>
       <c r="O11" s="18">
@@ -1351,7 +1575,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="19">
         <v>3000</v>
       </c>
@@ -1443,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="19">
         <v>4000</v>
       </c>
@@ -1487,192 +1711,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>50</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="29">
         <v>1515.02</v>
       </c>
-      <c r="P15" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="31">
+      <c r="P15" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="30">
         <f t="shared" si="0"/>
         <v>1515.02</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="30">
         <f t="shared" si="1"/>
         <v>227.25299999999999</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="29">
         <f t="shared" si="2"/>
         <v>1742.2729999999999</v>
       </c>
-      <c r="V15" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="V15" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="27" t="s">
         <v>97</v>
       </c>
       <c r="M16" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="27">
         <f>448*1.38</f>
         <v>618.24</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="27">
         <v>2</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <f t="shared" si="0"/>
         <v>1236.48</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="30">
         <f t="shared" si="1"/>
         <v>185.47200000000001</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="29">
         <f t="shared" si="2"/>
         <v>1421.952</v>
       </c>
-      <c r="V16" s="28">
-        <v>0</v>
-      </c>
-      <c r="W16" s="28" t="s">
+      <c r="V16" s="27">
+        <v>0</v>
+      </c>
+      <c r="W16" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+    <row r="17" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>200</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="40">
         <v>189</v>
       </c>
-      <c r="P17" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="42">
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="41">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="41">
         <f t="shared" si="1"/>
         <v>28.349999999999998</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="40">
         <f t="shared" si="2"/>
         <v>217.35</v>
       </c>
-      <c r="T17" s="39">
-        <v>1</v>
-      </c>
-      <c r="U17" s="39">
-        <v>1</v>
-      </c>
-      <c r="W17" s="39" t="s">
+      <c r="T17" s="38">
+        <v>1</v>
+      </c>
+      <c r="U17" s="38">
+        <v>1</v>
+      </c>
+      <c r="W17" s="38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+    <row r="18" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="O18" s="44"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="44"/>
-    </row>
-    <row r="19" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M19" s="46"/>
-      <c r="O19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="44"/>
-    </row>
-    <row r="20" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="46"/>
-      <c r="O20" s="44"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="44"/>
-    </row>
-    <row r="21" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M21" s="46"/>
-      <c r="O21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="44"/>
-    </row>
-    <row r="22" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M22" s="46"/>
-      <c r="O22" s="44"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="44"/>
-    </row>
-    <row r="23" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="46"/>
-      <c r="O23" s="44"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="44"/>
-    </row>
-    <row r="24" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="46"/>
-      <c r="O24" s="44"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="44"/>
-    </row>
-    <row r="25" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="45"/>
+      <c r="O18" s="43"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="43"/>
+    </row>
+    <row r="19" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="O19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="43"/>
+    </row>
+    <row r="20" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="O20" s="43"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="43"/>
+    </row>
+    <row r="21" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="45"/>
+      <c r="O21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="45"/>
+      <c r="O22" s="43"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="43"/>
+    </row>
+    <row r="23" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="45"/>
+      <c r="O23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="43"/>
+    </row>
+    <row r="24" spans="2:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="45"/>
+      <c r="O24" s="43"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="43"/>
+    </row>
+    <row r="25" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="s">
         <v>6</v>
       </c>
@@ -1682,20 +1912,20 @@
       <c r="F25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="31">
         <f>O25*P25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="31">
         <f>$P$1*Q25</f>
         <v>0</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="32">
         <f>Q25*(1+$P$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>119</v>
       </c>
@@ -1715,13 +1945,23 @@
         <v>9682.7354999999989</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:23" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +2002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +2022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +2053,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -1834,7 +2074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -1842,7 +2082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>16</v>
       </c>
@@ -1853,7 +2093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>29</v>
       </c>
@@ -1885,21 +2125,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796DE933-3995-4011-AD8E-2C8B39A8D7E0}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +2194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -1979,11 +2224,17 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="P2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O3" s="1" t="s">
         <v>128</v>
       </c>
@@ -1991,7 +2242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1800</v>
       </c>
@@ -2004,210 +2255,1266 @@
       <c r="P4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="46">
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M5" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="47" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1400</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>123</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G9" si="0">E6/120</f>
+      <c r="G7">
+        <f t="shared" ref="G7:G10" si="0">E7/120</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <f>H6*E6</f>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>H7*E7</f>
         <v>1400</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q7" t="s">
         <v>139</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <f>800*1.38</f>
         <v>1104</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O7" s="1" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>137</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>1750</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>123</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f>1750/120</f>
         <v>14.583333333333334</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q9" s="46">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1440</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>123</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f>H9*E9</f>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>H10*E10</f>
         <v>1440</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="J12">
-        <v>260</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="47">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="E13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="J13">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>29</v>
+        <v>260</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="48"/>
+    </row>
+    <row r="19" spans="1:23" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1800</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="38">
+        <f>1800/120</f>
+        <v>15</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" s="50">
+        <v>421</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="41">
+        <f>O19*P19</f>
+        <v>421</v>
+      </c>
+      <c r="R19" s="41">
+        <f>$P$16*Q19</f>
+        <v>63.15</v>
+      </c>
+      <c r="S19" s="40">
+        <f>Q19*(1+$P$16)</f>
+        <v>484.15</v>
+      </c>
+      <c r="T19" s="38">
+        <v>1</v>
+      </c>
+      <c r="U19" s="38">
+        <v>1</v>
+      </c>
+      <c r="V19" s="38">
+        <v>1</v>
+      </c>
+      <c r="W19" s="51"/>
+    </row>
+    <row r="20" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="38">
+        <v>15</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50">
+        <v>656.56</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="41">
+        <f>O20*P20</f>
+        <v>656.56</v>
+      </c>
+      <c r="R20" s="41">
+        <f>$P$16*Q20</f>
+        <v>98.483999999999995</v>
+      </c>
+      <c r="S20" s="40">
+        <f t="shared" ref="S20:S26" si="1">Q20*(1+$P$16)</f>
+        <v>755.04399999999987</v>
+      </c>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+    </row>
+    <row r="21" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="53">
+        <v>12</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="55">
+        <v>1100</v>
+      </c>
+      <c r="P21" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="54">
+        <f>O21*P21</f>
+        <v>1100</v>
+      </c>
+      <c r="R21" s="54">
+        <f>$P$16*Q21</f>
+        <v>165</v>
+      </c>
+      <c r="S21" s="55">
+        <f t="shared" si="1"/>
+        <v>1265</v>
+      </c>
+      <c r="T21" s="53">
+        <v>1</v>
+      </c>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+    </row>
+    <row r="22" spans="1:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57">
+        <v>1440</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="57">
+        <v>12</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="57"/>
+      <c r="O22" s="59">
+        <v>369.08</v>
+      </c>
+      <c r="P22" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="60">
+        <f>O22*P22</f>
+        <v>369.08</v>
+      </c>
+      <c r="R22" s="60">
+        <f>$P$16*Q22</f>
+        <v>55.361999999999995</v>
+      </c>
+      <c r="S22" s="61">
+        <f t="shared" si="1"/>
+        <v>424.44199999999995</v>
+      </c>
+      <c r="T22" s="57">
+        <v>1</v>
+      </c>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+    </row>
+    <row r="23" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>52</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="11">
+        <v>1500</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13">
+        <f>O23*P23</f>
+        <v>1500</v>
+      </c>
+      <c r="R23" s="13">
+        <f>$P$16*Q23</f>
+        <v>225</v>
+      </c>
+      <c r="S23" s="11">
+        <f t="shared" si="1"/>
+        <v>1724.9999999999998</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64">
+        <v>48</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="64"/>
+      <c r="O24" s="66">
+        <v>405</v>
+      </c>
+      <c r="P24" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="67">
+        <f>O24*P24</f>
+        <v>405</v>
+      </c>
+      <c r="R24" s="67">
+        <f>$P$16*Q24</f>
+        <v>60.75</v>
+      </c>
+      <c r="S24" s="66">
+        <f t="shared" si="1"/>
+        <v>465.74999999999994</v>
+      </c>
+      <c r="T24" s="64">
+        <v>1</v>
+      </c>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+    </row>
+    <row r="25" spans="1:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="71">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="P25" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="72">
+        <f>O25*P25</f>
+        <v>68.989999999999995</v>
+      </c>
+      <c r="R25" s="72">
+        <f>$P$16*Q25</f>
+        <v>10.3485</v>
+      </c>
+      <c r="S25" s="73">
+        <f t="shared" ref="S25" si="2">Q25*(1+$P$16)</f>
+        <v>79.338499999999982</v>
+      </c>
+      <c r="T25" s="69">
+        <v>1</v>
+      </c>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="7">
+        <f>O26*P26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <f>$P$16*Q26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="T29" s="26">
+        <f>SUMIFS($S6:$S25,T6:T25,1)</f>
+        <v>4443.6804999999995</v>
+      </c>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O9" r:id="rId1" xr:uid="{E3A82E41-384D-4850-B4BC-469D1BDEF0BC}"/>
-    <hyperlink ref="O12" r:id="rId2" xr:uid="{42FA0B55-D336-4512-9224-B1AB14B596A8}"/>
-    <hyperlink ref="P4" r:id="rId3" xr:uid="{0FA91225-8268-4414-BEAD-FC8276A417FD}"/>
-    <hyperlink ref="O3" r:id="rId4" xr:uid="{7594A523-EFD4-4808-A9A8-2E191B458E3F}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{93D119F3-1EF4-4D2C-AEA5-54808DCD0BA5}"/>
-    <hyperlink ref="O5" r:id="rId6" location="start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops" display="https://www.campingworld.com/dometic-ci21-induction-cooktop-107853.html?cgid=ranges-cooktops - start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops" xr:uid="{5DC9344F-8740-46E2-A096-ED0B240B7DB5}"/>
-    <hyperlink ref="O8" r:id="rId7" location="store=256" display="https://www.canadiantire.ca/fr/pdp/four-grille-pain-a-convection-paderno-6-tranches-0435267p.0435267.html?gclid=Cj0KCQjwu6fzBRC6ARIsAJUwa2TT8W5uoxdikiHuZMiFqOtU6Wyr9xZdjw4J6rs42ap8RXev7TvXgIoaAqH9EALw_wcB&amp;gclsrc=aw.ds - store=256" xr:uid="{CF014C39-5AA7-4BD5-B040-8D9145E5A1B8}"/>
-    <hyperlink ref="O7" r:id="rId8" xr:uid="{4CE9ADF3-C60F-468E-90C9-06CF1E0AAC79}"/>
+    <hyperlink ref="O13" r:id="rId1" xr:uid="{42FA0B55-D336-4512-9224-B1AB14B596A8}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{0FA91225-8268-4414-BEAD-FC8276A417FD}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{7594A523-EFD4-4808-A9A8-2E191B458E3F}"/>
+    <hyperlink ref="O4" r:id="rId4" xr:uid="{93D119F3-1EF4-4D2C-AEA5-54808DCD0BA5}"/>
+    <hyperlink ref="O6" r:id="rId5" location="start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops" display="https://www.campingworld.com/dometic-ci21-induction-cooktop-107853.html?cgid=ranges-cooktops - start=16&amp;cgid=inside-rv%2Frv-appliances%2Flarge-appliances%2Franges-cooktops" xr:uid="{5DC9344F-8740-46E2-A096-ED0B240B7DB5}"/>
+    <hyperlink ref="O9" r:id="rId6" location="store=256" display="https://www.canadiantire.ca/fr/pdp/four-grille-pain-a-convection-paderno-6-tranches-0435267p.0435267.html?gclid=Cj0KCQjwu6fzBRC6ARIsAJUwa2TT8W5uoxdikiHuZMiFqOtU6Wyr9xZdjw4J6rs42ap8RXev7TvXgIoaAqH9EALw_wcB&amp;gclsrc=aw.ds - store=256" xr:uid="{CF014C39-5AA7-4BD5-B040-8D9145E5A1B8}"/>
+    <hyperlink ref="O8" r:id="rId7" xr:uid="{4CE9ADF3-C60F-468E-90C9-06CF1E0AAC79}"/>
+    <hyperlink ref="N19" r:id="rId8" xr:uid="{5778BF96-5DF0-4FD6-9C3E-E1476922F4B0}"/>
+    <hyperlink ref="M19" r:id="rId9" xr:uid="{CD61A46A-5398-43EE-AB6B-7CFDAE0199E0}"/>
+    <hyperlink ref="M20" r:id="rId10" xr:uid="{3CB6A1D7-D76D-41C3-82D3-481532EBB81E}"/>
+    <hyperlink ref="O5" r:id="rId11" xr:uid="{169FC2CD-EF44-4516-BD17-B975696DAA50}"/>
+    <hyperlink ref="O2" r:id="rId12" xr:uid="{81CEE45D-FEEC-44DE-B558-11421DE0907B}"/>
+    <hyperlink ref="M24" r:id="rId13" xr:uid="{1837C095-2875-4B96-928C-69E5DC546369}"/>
+    <hyperlink ref="M22" r:id="rId14" xr:uid="{4C78AA76-61E1-40E7-A239-EB56A8E8078B}"/>
+    <hyperlink ref="M25" r:id="rId15" location="HLCXComparisonWidget_feature_div" display="https://www.amazon.com/SHURFLO-4008-101-A65-Water-Pump-Revolution/dp/B00W5GCQC2/ref=pd_sbs_263_img_1/134-2173165-6861012?_encoding=UTF8&amp;pd_rd_i=B00W5GCQC2&amp;pd_rd_r=0e2ae9fd-78f6-497b-8d68-7727eddaf473&amp;pd_rd_w=jZhFp&amp;pd_rd_wg=J472b&amp;pf_rd_p=5cfcfe89-300f-47d2-b1ad-a4e27203a02a&amp;pf_rd_r=45T142AVQX13ZQBFM5FP&amp;psc=1&amp;refRID=45T142AVQX13ZQBFM5FP - HLCXComparisonWidget_feature_div" xr:uid="{0DF23B26-CA93-476D-A30E-0F11AC67EB3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE97DB6-E6B7-40FC-91E5-C67E584624CB}">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4">
+        <f>1800/120</f>
+        <v>15</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="6">
+        <v>1530</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" ref="Q8:Q10" si="0">O8*P8</f>
+        <v>1530</v>
+      </c>
+      <c r="R8" s="7">
+        <f>$P$3*Q8</f>
+        <v>229.5</v>
+      </c>
+      <c r="S8" s="8">
+        <f>Q8*(1+$P$3)</f>
+        <v>1759.4999999999998</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" s="47">
+        <v>43.72</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="0"/>
+        <v>43.72</v>
+      </c>
+      <c r="R9" s="7">
+        <f>$P$3*Q9</f>
+        <v>6.5579999999999998</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" ref="S9:S20" si="1">Q9*(1+$P$3)</f>
+        <v>50.277999999999992</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" ref="Q10:Q13" si="2">O10*P10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <f>$P$3*Q10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="46">
+        <v>460</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="R11" s="7">
+        <f>$P$3*Q11</f>
+        <v>138</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="1"/>
+        <v>1058</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" ref="R12:R20" si="3">$P$3*Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" ref="Q14:Q20" si="4">O14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="46">
+        <v>700</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="1"/>
+        <v>804.99999999999989</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19">
+        <v>250</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>194</v>
+      </c>
+      <c r="T24">
+        <f>SUMIFS($S8:$S20,T8:T20,1)</f>
+        <v>4247.7780000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M9" r:id="rId1" xr:uid="{F10A9F24-2320-4D14-9D27-4C4C93B89493}"/>
+    <hyperlink ref="M8" r:id="rId2" xr:uid="{6A5CA1D1-2122-4A37-B3FF-830659B28C28}"/>
+    <hyperlink ref="M11" r:id="rId3" xr:uid="{C3F6EE5A-8C99-43DA-8DBE-244A9782C830}"/>
+    <hyperlink ref="M15" r:id="rId4" xr:uid="{529D4292-3BA6-49CF-814B-1007512BA76B}"/>
+    <hyperlink ref="M19" r:id="rId5" xr:uid="{B652EF67-5BE0-4CBA-BE9E-6A96AA23B03A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC614BF-C433-45D0-982E-8EA8E06B281D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="36" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
         <v>102</v>
       </c>
       <c r="D2" t="s">
@@ -2229,7 +3536,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>100</v>
       </c>
@@ -2259,8 +3566,8 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
       <c r="C4">
         <f>12*100</f>
         <v>1200</v>
@@ -2287,10 +3594,10 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -2298,7 +3605,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +3616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>109</v>
       </c>
@@ -2320,7 +3627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>111</v>
       </c>
@@ -2331,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>112</v>
       </c>
@@ -2343,17 +3650,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>115</v>
       </c>
